--- a/data/trans_camb/P69_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Edad-trans_camb.xlsx
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,67</t>
+          <t>0,0; 9,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,18</t>
+          <t>0,0; 9,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,5</t>
+          <t>0,0; 9,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,66</t>
+          <t>0,0; 7,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,16</t>
+          <t>0,0; 6,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,03</t>
+          <t>0,0; 6,5</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,95</t>
+          <t>0,0; 10,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,11</t>
+          <t>0,0; 10,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,74</t>
+          <t>0,0; 10,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,14</t>
+          <t>0,0; 8,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,72</t>
+          <t>0,0; 7,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,42</t>
+          <t>0,0; 6,95</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,29</t>
+          <t>0,0; 4,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 2,83</t>
+          <t>-3,41; 2,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,93</t>
+          <t>0,0; 4,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,22 +926,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 0,0</t>
+          <t>-8,53; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,55</t>
+          <t>0,0; 3,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,78</t>
+          <t>-1,89; 1,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,8</t>
+          <t>-2,4; 1,8</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,49</t>
+          <t>0,0; 4,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,91</t>
+          <t>-3,46; 2,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 0,0</t>
+          <t>-8,53; 0,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,68</t>
+          <t>0,0; 3,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,81</t>
+          <t>-1,9; 1,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,84</t>
+          <t>-2,41; 1,84</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 0,0</t>
+          <t>-5,96; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 0,0</t>
+          <t>-7,67; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,0</t>
+          <t>-3,3; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,0</t>
+          <t>-3,55; 0,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,9; -0,25</t>
+          <t>-4,73; -0,25</t>
         </is>
       </c>
     </row>
@@ -1228,12 +1228,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 0,0</t>
+          <t>-5,96; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 0,0</t>
+          <t>-7,67; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,0</t>
+          <t>-3,3; 0,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,0</t>
+          <t>-3,55; 0,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,9; -0,25</t>
+          <t>-4,73; -0,25</t>
         </is>
       </c>
     </row>
@@ -1333,17 +1333,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,18</t>
+          <t>0,0; 4,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 1,85</t>
+          <t>-4,53; 1,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 2,89</t>
+          <t>-1,85; 2,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,27 +1353,27 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 0,0</t>
+          <t>-8,22; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -0,46</t>
+          <t>-4,27; -0,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,48</t>
+          <t>0,0; 2,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 1,33</t>
+          <t>-3,74; 1,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,72</t>
+          <t>-2,14; 1,78</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,46</t>
+          <t>0,0; 4,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 1,89</t>
+          <t>-4,53; 1,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 3,0</t>
+          <t>-1,85; 2,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 0,0</t>
+          <t>-8,22; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -0,46</t>
+          <t>-4,27; -0,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,61</t>
+          <t>0,0; 2,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 1,35</t>
+          <t>-4,05; 1,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,76</t>
+          <t>-2,16; 1,81</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 0,0</t>
+          <t>-9,5; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,0</t>
+          <t>-1,69; 0,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 0,0</t>
+          <t>-6,04; 0,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,0</t>
+          <t>-0,59; 0,0</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 0,0</t>
+          <t>-9,5; 0,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1680,12 +1680,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,0</t>
+          <t>-1,69; 0,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 0,0</t>
+          <t>-6,04; 0,0</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,0</t>
+          <t>-0,59; 0,0</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,62</t>
+          <t>-0,3; 1,62</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,94</t>
+          <t>-1,8; 0,89</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,09</t>
+          <t>-1,24; 1,14</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,27 +2001,27 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,12; 0,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,42</t>
+          <t>-2,32; -0,44</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,13</t>
+          <t>-0,17; 1,08</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,56</t>
+          <t>-1,26; 0,58</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,43</t>
+          <t>-1,32; 0,39</t>
         </is>
       </c>
     </row>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,65</t>
+          <t>-0,29; 1,65</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,95</t>
+          <t>-1,81; 0,9</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,11</t>
+          <t>-1,24; 1,15</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2107,27 +2107,27 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,12; 0,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,42</t>
+          <t>-2,32; -0,44</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,15</t>
+          <t>-0,17; 1,1</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,57</t>
+          <t>-1,27; 0,58</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,43</t>
+          <t>-1,32; 0,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P69_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,83</t>
+          <t>0,0; 9,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,54</t>
+          <t>0,0; 11,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,57</t>
+          <t>0,0; 9,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,49</t>
+          <t>0,0; 6,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,57</t>
+          <t>0,0; 6,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,5</t>
+          <t>0,0; 6,7</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,91</t>
+          <t>0,0; 10,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,54</t>
+          <t>0,0; 12,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,58</t>
+          <t>0,0; 10,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,1</t>
+          <t>0,0; 7,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,03</t>
+          <t>0,0; 7,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,95</t>
+          <t>0,0; 7,18</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,33</t>
+          <t>0,0; 4,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 2,85</t>
+          <t>-3,63; 2,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,94</t>
+          <t>0,0; 5,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -931,17 +931,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,18</t>
+          <t>0,0; 2,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,81</t>
+          <t>-2,31; 1,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 1,8</t>
+          <t>-2,62; 1,77</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,53</t>
+          <t>0,0; 4,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,93</t>
+          <t>-3,63; 2,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,19</t>
+          <t>0,0; 5,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,29</t>
+          <t>0,0; 2,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,84</t>
+          <t>-2,31; 1,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,84</t>
+          <t>-2,63; 1,8</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 0,0</t>
+          <t>-6,56; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 0,0</t>
+          <t>-3,14; 0,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 0,0</t>
+          <t>-6,56; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 0,0</t>
+          <t>-3,14; 0,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,17 +1333,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,63</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,83</t>
+          <t>-4,34; 1,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 2,79</t>
+          <t>-1,89; 2,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 0,0</t>
+          <t>-10,39; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1363,17 +1363,17 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,89</t>
+          <t>0,0; 4,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 1,33</t>
+          <t>-3,71; 1,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,78</t>
+          <t>-2,14; 1,51</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,85</t>
+          <t>0,0; 4,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,86</t>
+          <t>-4,45; 1,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 2,88</t>
+          <t>-1,92; 2,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 0,0</t>
+          <t>-10,39; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,98</t>
+          <t>0,0; 4,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 1,34</t>
+          <t>-3,74; 1,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,81</t>
+          <t>-2,14; 1,53</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 0,0</t>
+          <t>-9,42; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 0,0</t>
+          <t>-6,01; 0,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 0,0</t>
+          <t>-9,42; 0,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 0,0</t>
+          <t>-6,01; 0,0</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1981,17 +1981,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,62</t>
+          <t>-0,28; 1,68</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,89</t>
+          <t>-1,87; 0,79</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,14</t>
+          <t>-1,4; 1,15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,0</t>
+          <t>-2,98; 0,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2011,17 +2011,17 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,08</t>
+          <t>-0,17; 1,06</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,58</t>
+          <t>-1,42; 0,52</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,39</t>
+          <t>-1,39; 0,42</t>
         </is>
       </c>
     </row>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,65</t>
+          <t>-0,28; 1,7</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,9</t>
+          <t>-1,89; 0,8</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,15</t>
+          <t>-1,41; 1,17</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,0</t>
+          <t>-2,98; 0,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,1</t>
+          <t>-0,16; 1,07</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,58</t>
+          <t>-1,42; 0,52</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,4</t>
+          <t>-1,39; 0,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P69_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,48</t>
+          <t>0,0; 10,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,11</t>
+          <t>0,0; 9,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,89</t>
+          <t>0,0; 10,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,76</t>
+          <t>0,0; 6,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,82</t>
+          <t>0,0; 7,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,7</t>
+          <t>0,0; 6,03</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,47</t>
+          <t>0,0; 11,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,56</t>
+          <t>0,0; 10,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,98</t>
+          <t>0,0; 11,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,26</t>
+          <t>0,0; 7,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,33</t>
+          <t>0,0; 7,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,18</t>
+          <t>0,0; 6,42</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,32</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 2,79</t>
+          <t>-3,0; 2,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,08</t>
+          <t>0,0; 4,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,22 +926,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 0,0</t>
+          <t>-8,92; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,74</t>
+          <t>0,0; 3,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,79</t>
+          <t>-1,91; 1,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,77</t>
+          <t>-2,64; 1,8</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,51</t>
+          <t>0,0; 4,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 2,87</t>
+          <t>-3,02; 2,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,35</t>
+          <t>0,0; 5,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 0,0</t>
+          <t>-8,92; 0,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,81</t>
+          <t>0,0; 3,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,82</t>
+          <t>-1,92; 1,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,8</t>
+          <t>-2,64; 1,84</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 0,0</t>
+          <t>-5,84; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 0,0</t>
+          <t>-6,42; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 0,0</t>
+          <t>-2,93; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,0</t>
+          <t>-3,54; 0,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; -0,25</t>
+          <t>-3,9; -0,25</t>
         </is>
       </c>
     </row>
@@ -1228,12 +1228,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 0,0</t>
+          <t>-5,84; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 0,0</t>
+          <t>-6,42; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 0,0</t>
+          <t>-2,93; 0,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,0</t>
+          <t>-3,54; 0,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-4,73; -0,25</t>
+          <t>-3,9; -0,25</t>
         </is>
       </c>
     </row>
@@ -1333,17 +1333,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,65</t>
+          <t>0,0; 5,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,86</t>
+          <t>-4,41; 1,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,87</t>
+          <t>-1,83; 2,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,27 +1353,27 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 0,0</t>
+          <t>-10,12; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,27; -0,45</t>
+          <t>-4,77; -0,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,19</t>
+          <t>0,0; 3,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 1,34</t>
+          <t>-4,33; 1,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,51</t>
+          <t>-2,23; 1,72</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>0,0; 5,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 1,9</t>
+          <t>-4,44; 1,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 2,97</t>
+          <t>-1,83; 3,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 0,0</t>
+          <t>-10,12; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,27; -0,45</t>
+          <t>-4,77; -0,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,38</t>
+          <t>0,0; 3,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 1,36</t>
+          <t>-4,36; 1,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,53</t>
+          <t>-2,23; 1,76</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 0,0</t>
+          <t>-11,4; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,0</t>
+          <t>-1,4; 0,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 0,0</t>
+          <t>-6,07; 0,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 0,0</t>
+          <t>-0,66; 0,0</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 0,0</t>
+          <t>-11,4; 0,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1680,12 +1680,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,0</t>
+          <t>-1,4; 0,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 0,0</t>
+          <t>-6,07; 0,0</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 0,0</t>
+          <t>-0,66; 0,0</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,68</t>
+          <t>-0,28; 1,62</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,79</t>
+          <t>-2,02; 0,94</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,15</t>
+          <t>-1,5; 1,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,27 +2001,27 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,0</t>
+          <t>-2,7; 0,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,32; -0,44</t>
+          <t>-2,47; -0,42</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,06</t>
+          <t>-0,15; 1,13</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,52</t>
+          <t>-1,34; 0,56</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,42</t>
+          <t>-1,32; 0,43</t>
         </is>
       </c>
     </row>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,7</t>
+          <t>-0,28; 1,65</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,8</t>
+          <t>-2,04; 0,95</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,17</t>
+          <t>-1,51; 1,11</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2107,27 +2107,27 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,0</t>
+          <t>-2,7; 0,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,32; -0,44</t>
+          <t>-2,47; -0,42</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,07</t>
+          <t>-0,15; 1,15</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,52</t>
+          <t>-1,34; 0,57</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,43</t>
+          <t>-1,33; 0,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P69_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 0,0</t>
+          <t>-9,16; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,8</t>
+          <t>-2,54; 1,81</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,69%</t>
+          <t>-1,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,09%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 0,0</t>
+          <t>-9,16; 0,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,84</t>
+          <t>-2,56; 1,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,23</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 0,0</t>
+          <t>-5,67; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,0</t>
+          <t>-2,88; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,9; -0,25</t>
+          <t>-3,59; -0,24</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,98%</t>
+          <t>-1,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>-0,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,34%</t>
+          <t>-1,23%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 0,0</t>
+          <t>-5,67; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,0</t>
+          <t>-2,88; 0,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,9; -0,25</t>
+          <t>-3,59; -0,24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,51</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 2,89</t>
+          <t>-2,89; 1,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -0,46</t>
+          <t>-4,28; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,72</t>
+          <t>-1,98; 1,92</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>-0,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,65%</t>
+          <t>-1,39%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>-0,52%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 3,0</t>
+          <t>-2,9; 1,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -0,46</t>
+          <t>-4,28; 0,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,76</t>
+          <t>-1,98; 1,94</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,13</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,0</t>
+          <t>-1,53; 0,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,0</t>
+          <t>-0,72; 0,0</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>-0,29%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-0,12%</t>
+          <t>-0,13%</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,0</t>
+          <t>-1,53; 0,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,0</t>
+          <t>-0,72; 0,0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1823,12 +1823,12 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1853,12 +1853,12 @@
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,27 +2001,27 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,43</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-0,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-1,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-0,41%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,28; 1,62</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 0,94</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 1,15</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 0,0</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; -0,4</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 1,13</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 0,56</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 0,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-0,3%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,02%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-0,51%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-1,02%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-0,33%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-0,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-0,28; 1,65</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-2,04; 0,95</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 1,11</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 1,17</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-2,7; 0,0</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-2,47; -0,42</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; -0,4</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-0,15; 1,15</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-1,34; 0,57</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 0,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 0,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P69_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Edad-trans_camb.xlsx
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,67</t>
+          <t>0,0; 12,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,18</t>
+          <t>0,0; 10,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,5</t>
+          <t>0,0; 10,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,66</t>
+          <t>0,0; 6,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,16</t>
+          <t>0,0; 7,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,03</t>
+          <t>0,0; 6,64</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,95</t>
+          <t>0,0; 14,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,11</t>
+          <t>0,0; 11,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,74</t>
+          <t>0,0; 11,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,14</t>
+          <t>0,0; 7,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,72</t>
+          <t>0,0; 7,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,42</t>
+          <t>0,0; 7,11</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,29</t>
+          <t>0,0; 5,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 2,83</t>
+          <t>-3,65; 2,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,93</t>
+          <t>0,0; 4,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,22 +926,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 0,0</t>
+          <t>-9,29; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,55</t>
+          <t>0,0; 2,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,78</t>
+          <t>-2,23; 1,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,81</t>
+          <t>-2,4; 1,76</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,49</t>
+          <t>0,0; 5,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,91</t>
+          <t>-3,65; 2,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,19</t>
+          <t>0,0; 5,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 0,0</t>
+          <t>-9,29; 0,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,68</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,81</t>
+          <t>-2,25; 1,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 1,84</t>
+          <t>-2,4; 1,79</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 0,0</t>
+          <t>-5,08; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 0,0</t>
+          <t>-5,52; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 0,0</t>
+          <t>-3,8; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,0</t>
+          <t>-3,23; 0,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,59; -0,24</t>
+          <t>-3,75; -0,25</t>
         </is>
       </c>
     </row>
@@ -1228,12 +1228,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 0,0</t>
+          <t>-5,08; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 0,0</t>
+          <t>-5,52; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 0,0</t>
+          <t>-3,8; 0,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,0</t>
+          <t>-3,23; 0,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,59; -0,24</t>
+          <t>-3,75; -0,25</t>
         </is>
       </c>
     </row>
@@ -1333,17 +1333,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,18</t>
+          <t>0,0; 5,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 1,85</t>
+          <t>-3,6; 1,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 1,88</t>
+          <t>-3,71; 1,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,27 +1353,27 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 0,0</t>
+          <t>-10,15; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 0,0</t>
+          <t>-3,73; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,48</t>
+          <t>0,0; 3,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 1,33</t>
+          <t>-3,71; 1,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,92</t>
+          <t>-2,08; 1,83</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,46</t>
+          <t>0,0; 5,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 1,89</t>
+          <t>-3,62; 1,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 1,92</t>
+          <t>-3,72; 1,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 0,0</t>
+          <t>-10,15; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 0,0</t>
+          <t>-3,73; 0,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,61</t>
+          <t>0,0; 3,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 1,35</t>
+          <t>-3,74; 1,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,94</t>
+          <t>-2,09; 1,87</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 0,0</t>
+          <t>-9,34; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,0</t>
+          <t>-1,8; 0,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 0,0</t>
+          <t>-6,66; 0,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,0</t>
+          <t>-0,93; 0,0</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 0,0</t>
+          <t>-9,34; 0,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1680,12 +1680,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,0</t>
+          <t>-1,8; 0,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 0,0</t>
+          <t>-6,66; 0,0</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,0</t>
+          <t>-0,93; 0,0</t>
         </is>
       </c>
     </row>
@@ -2197,17 +2197,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,62</t>
+          <t>-0,35; 1,58</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,94</t>
+          <t>-1,79; 0,96</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,15</t>
+          <t>-1,43; 1,16</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2217,27 +2217,27 @@
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,82; 0,0</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,42; -0,4</t>
+          <t>-2,36; -0,4</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,13</t>
+          <t>-0,05; 1,11</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,56</t>
+          <t>-1,39; 0,5</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,52</t>
+          <t>-1,19; 0,43</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,65</t>
+          <t>-0,35; 1,62</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,95</t>
+          <t>-1,79; 0,97</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,17</t>
+          <t>-1,44; 1,17</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2323,27 +2323,27 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,82; 0,0</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-2,42; -0,4</t>
+          <t>-2,36; -0,4</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,15</t>
+          <t>-0,05; 1,12</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,57</t>
+          <t>-1,39; 0,5</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,52</t>
+          <t>-1,2; 0,43</t>
         </is>
       </c>
     </row>
